--- a/part_2/fw_2.xlsx
+++ b/part_2/fw_2.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxime/Documents/m1/info-0045-intro-sec/projects/project_1/part_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97238C4E-B170-D640-94DC-037B16D8265D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6CC482-8CE8-674C-958F-C75E271278B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="30840" xr2:uid="{1EE49418-F526-7D4D-8241-E5FF23AD521F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="30840" xr2:uid="{1EE49418-F526-7D4D-8241-E5FF23AD521F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -863,10 +863,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A75887C-02E8-CA4D-B6FF-E24AB5FBBA98}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1785,6 +1788,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="93" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
     <ignoredError sqref="D8:D9 D19:D20 F2:F11 F22:F26 F12:F20 D22 D11" numberStoredAsText="1"/>
   </ignoredErrors>

--- a/part_2/fw_2.xlsx
+++ b/part_2/fw_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxime/Documents/m1/info-0045-intro-sec/projects/project_1/part_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6CC482-8CE8-674C-958F-C75E271278B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464DEFBA-383B-4B44-97A2-9617D7EB3A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="30840" xr2:uid="{1EE49418-F526-7D4D-8241-E5FF23AD521F}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="30820" xr2:uid="{1EE49418-F526-7D4D-8241-E5FF23AD521F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="52">
   <si>
     <t>Zone</t>
   </si>
@@ -160,24 +160,12 @@
     <t>10.10.1.2</t>
   </si>
   <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
     <t>192.168.1.2</t>
   </si>
   <si>
-    <t>DHCP in from DHCP to DHCP_R1</t>
-  </si>
-  <si>
     <t>10.10.1.3</t>
   </si>
   <si>
-    <t>LDNS response in</t>
-  </si>
-  <si>
     <t>DHCP out from DHCP_R1 to DHCP</t>
   </si>
   <si>
@@ -214,9 +202,6 @@
     <t>192.168.2.2</t>
   </si>
   <si>
-    <t>DHCP in from DHCP to DHCP_R2</t>
-  </si>
-  <si>
     <t>DHCP out from DHCP_R2 to DHCP</t>
   </si>
   <si>
@@ -224,6 +209,9 @@
   </si>
   <si>
     <t>z-all-sandwich</t>
+  </si>
+  <si>
+    <t>67/68</t>
   </si>
 </sst>
 </file>
@@ -291,7 +279,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -395,12 +383,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom style="mediumDashed">
+      <bottom style="hair">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -409,7 +397,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="mediumDashed">
+      <bottom style="hair">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -419,21 +407,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="mediumDashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="mediumDashed">
+      <top style="hair">
         <color indexed="64"/>
       </top>
-      <bottom style="mediumDashed">
+      <bottom style="hair">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -441,10 +418,10 @@
     <border>
       <left/>
       <right/>
-      <top style="mediumDashed">
+      <top style="hair">
         <color indexed="64"/>
       </top>
-      <bottom style="mediumDashed">
+      <bottom style="hair">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -454,23 +431,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="mediumDashed">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="mediumDashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="mediumDashed">
+      <bottom style="hair">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -481,20 +445,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="mediumDashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="mediumDashed">
+      <bottom style="hair">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -503,7 +454,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -514,16 +465,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -534,21 +481,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -866,10 +808,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -908,15 +850,15 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="3" cm="1">
-        <f t="array" ref="B2:B30">_xlfn.SEQUENCE(29)</f>
+        <f t="array" ref="B2:B26">_xlfn.SEQUENCE(25)</f>
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -940,857 +882,759 @@
       <c r="I2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="19">
         <v>2</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="24" t="s">
+      <c r="D3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="23"/>
-      <c r="K3" s="25"/>
-    </row>
-    <row r="4" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+      <c r="J3" s="19"/>
+      <c r="K3" s="21"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="25">
         <v>3</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="30" t="s">
+      <c r="D4" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="30" t="s">
+      <c r="H4" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="23"/>
-      <c r="K4" s="25"/>
-    </row>
-    <row r="5" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="J4" s="19"/>
+      <c r="K4" s="21"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="28">
         <v>4</v>
       </c>
-      <c r="C5" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="34" t="s">
+      <c r="C5" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="34" t="s">
+      <c r="F5" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="35" t="s">
+      <c r="I5" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="23"/>
+      <c r="J5" s="19"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="16">
         <v>5</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="21" t="s">
+      <c r="D6" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="I6" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="23"/>
+      <c r="J6" s="19"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="31">
         <v>6</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="16" t="s">
+      <c r="D7" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="23"/>
+      <c r="J7" s="19"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="28">
         <v>7</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="19"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="19">
+        <v>8</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="F9" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="19"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="19">
+        <v>9</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="24" t="s">
+      <c r="F10" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="H10" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="18" t="s">
+      <c r="I10" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="J8" s="23"/>
-    </row>
-    <row r="9" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
+      <c r="J10" s="19"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="29">
-        <v>8</v>
-      </c>
-      <c r="C9" s="30" t="s">
+      <c r="B11" s="19">
+        <v>10</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="30" t="s">
+      <c r="F11" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="19"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="19">
+        <v>11</v>
+      </c>
+      <c r="C12" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="30" t="s">
+      <c r="D12" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="23"/>
-    </row>
-    <row r="10" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
+      <c r="I12" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="19"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="33">
-        <v>9</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="34" t="s">
+      <c r="B13" s="19">
+        <v>12</v>
+      </c>
+      <c r="C13" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="34" t="s">
+      <c r="D13" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" s="19"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="25">
         <v>13</v>
       </c>
-      <c r="I10" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="23"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="23">
+      <c r="C14" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="24" t="s">
+      <c r="H14" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="J11" s="23"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="23">
-        <v>11</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="J12" s="23"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="23">
-        <v>12</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="J13" s="23"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="23">
-        <v>13</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" s="18" t="s">
+      <c r="I14" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="J14" s="23"/>
+      <c r="J14" s="19"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="23">
+      <c r="B15" s="16">
         <v>14</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="24" t="s">
+      <c r="D15" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="19"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="B16" s="31">
         <v>15</v>
       </c>
-      <c r="G15" s="24" t="s">
+      <c r="C16" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="24" t="s">
+      <c r="H16" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="18" t="s">
+      <c r="I16" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="19"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="28">
+        <v>16</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="19"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="19">
+        <v>17</v>
+      </c>
+      <c r="C18" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="J15" s="23"/>
-    </row>
-    <row r="16" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="29">
-        <v>15</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="30" t="s">
+      <c r="D18" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G16" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="J16" s="23"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="20">
-        <v>16</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="H17" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="J17" s="23"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="15">
-        <v>17</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="J18" s="23"/>
+      <c r="J18" s="19"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="23">
+        <v>46</v>
+      </c>
+      <c r="B19" s="19">
         <v>18</v>
       </c>
-      <c r="C19" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="24" t="s">
+      <c r="C19" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="24" t="s">
+      <c r="F19" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="24" t="s">
+      <c r="H19" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="I19" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="J19" s="23"/>
-    </row>
-    <row r="20" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="29">
+      <c r="I19" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J19" s="19"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="19">
         <v>19</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="30" t="s">
+      <c r="F20" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="J20" s="19"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="19">
+        <v>20</v>
+      </c>
+      <c r="C21" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="30" t="s">
+      <c r="D21" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="J20" s="23"/>
-    </row>
-    <row r="21" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="29">
-        <v>20</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="H21" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="I21" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="J21" s="23"/>
+      <c r="I21" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="J21" s="19"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="23">
+        <v>46</v>
+      </c>
+      <c r="B22" s="25">
         <v>21</v>
       </c>
-      <c r="C22" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="G22" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" s="24" t="s">
+      <c r="C22" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="I22" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="J22" s="23"/>
+      <c r="I22" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="J22" s="19"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="19">
+        <v>22</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" s="19"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="23">
-        <v>22</v>
-      </c>
-      <c r="C23" s="24" t="s">
+      <c r="B24" s="31">
+        <v>23</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" s="19"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="16">
         <v>24</v>
       </c>
-      <c r="D23" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="I23" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="J23" s="23"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="23">
-        <v>23</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="F24" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="G24" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="H24" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="I24" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="J24" s="23"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="23">
-        <v>24</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="F25" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="H25" s="24" t="s">
-        <v>11</v>
+      <c r="C25" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="J25" s="23"/>
-    </row>
-    <row r="26" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="29">
+        <v>16</v>
+      </c>
+      <c r="J25" s="19"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="15"/>
+      <c r="B26" s="4">
         <v>25</v>
       </c>
-      <c r="C26" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="F26" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="G26" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="H26" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="I26" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="J26" s="23"/>
+      <c r="C26" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" s="20">
-        <v>26</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G27" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="H27" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="I27" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="J27" s="23"/>
-    </row>
-    <row r="28" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="40">
-        <v>27</v>
-      </c>
-      <c r="C28" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="F28" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="G28" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="H28" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="I28" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="J28" s="23"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" s="20">
-        <v>28</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G29" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="H29" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="I29" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="J29" s="23"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="19"/>
-      <c r="B30" s="4">
-        <v>29</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G30" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="H30" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="I30" s="22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="23"/>
+      <c r="B30" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="93" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
-    <ignoredError sqref="D8:D9 D19:D20 F2:F11 F22:F26 F12:F20 D22 D11" numberStoredAsText="1"/>
+    <ignoredError sqref="F2:F7 F19:F22 F10:F16 F8" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>